--- a/milkcowsandprod.xlsx
+++ b/milkcowsandprod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/case_studdy_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DAE989-72B4-7A49-8ACC-8D652F8C6418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70845D07-FA74-FE42-BCD3-150EE327F012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24360" windowHeight="18800" tabRatio="773" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -317,7 +317,7 @@
     <t>Northern Plains</t>
   </si>
   <si>
-    <t>STATE</t>
+    <t>State</t>
   </si>
 </sst>
 </file>
@@ -24228,7 +24228,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12"/>
